--- a/ControlSample.xlsx
+++ b/ControlSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smp21js\Documents\PhD-Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C473B6D-302D-449D-9F61-55B3F16C4264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F647BB06-5D01-4F1D-8917-A452C074CFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -395,7 +395,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>11.103985559773516</v>
+        <v>1.2993401261630046</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -403,7 +403,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.97553161894893203</v>
+        <v>3.9287403833282113</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -411,7 +411,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2.8996112546294346</v>
+        <v>0.3934494514408321</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -419,7 +419,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>7.3692778915916746</v>
+        <v>0.81654240568640368</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -427,7 +427,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>8.7429169165449423</v>
+        <v>3.5420719536607893E-2</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -435,15 +435,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>8.5500231266054101</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>16.572379938170638</v>
+        <v>0.5448160625964017</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -451,15 +451,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>23.702217075173483</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>13.560562069932072</v>
+        <v>6.3001861466862863</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>12.18029141748762</v>
+        <v>11.810108842783688</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>30.413868468091561</v>
+        <v>8.6775147697285266</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>8.2340687599686113</v>
+        <v>0.81968940300636661</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -491,15 +491,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>17.437824300280464</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>12.949094998812413</v>
+        <v>5.2824948698958369</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>5.8887830136968891</v>
+        <v>6.3990890389971975</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -515,15 +515,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>21.035824671504873</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>5.8475699327524637</v>
+        <v>1.6941172876938935</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>20.738767939528099</v>
+        <v>1.3136182798891927</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>0.9925286810705225</v>
+        <v>1.0643097235687626</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>11.288071360260323</v>
+        <v>0.10224990181058391</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>11.943954454884393</v>
+        <v>0.32011325930889062</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>15.507462286202722</v>
+        <v>3.9005088104715595</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>13.671220682480481</v>
+        <v>0.83467998182020653</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>8.9314271778944665</v>
+        <v>4.5468772677612463</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>25.830895155071115</v>
+        <v>4.2783974423601263</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>3.6746766909806743</v>
+        <v>3.4780054801141338</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -603,15 +603,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>8.8250930050098351</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2.0918047202003995</v>
+        <v>0.56570946053667104</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>7.2626977479171364</v>
+        <v>2.363192808467184</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -627,15 +627,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>9.8398266521835733</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>12.301960384324094</v>
+        <v>0.13356657991850002</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>6.6086610977903941</v>
+        <v>10.811559622042045</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>5.7011032057583408</v>
+        <v>7.8791336080373028E-3</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -659,23 +659,23 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>14.021188635930956</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>1.4706966340892527</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>14.121571463258098</v>
+        <v>0.9500216525257551</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>4.3355247147898535</v>
+        <v>1.1465751446064847</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>9.3485904095974952</v>
+        <v>1.8335765772832817</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>45.668148952114592</v>
+        <v>1.6351801172948703</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -707,15 +707,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2.6379469260623432</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>3.0289798918188273</v>
+        <v>0.14620555006044808</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -723,23 +723,23 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>28.325297925012116</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>6.7367087533991166</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>6.1515580552964479</v>
+        <v>1.2814760961888512</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -747,15 +747,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2.5571580728328716</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>17.988643916989755</v>
+        <v>3.3939228551852714</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>6.9516804403905006</v>
+        <v>0.85838065993356671</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>4.4291268605135432</v>
+        <v>5.8331767892237069E-2</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>14.568488228212944</v>
+        <v>0.96822406589173404</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>21.31674525945381</v>
+        <v>1.369389682700225</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>15.265747297135569</v>
+        <v>0.8620658641952833</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>5.8317684371948753</v>
+        <v>0.77419174181823425</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>16.316057593959453</v>
+        <v>3.0440659924555202</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>19.50469331795907</v>
+        <v>10.923630240385203</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>6.7484091106970183</v>
+        <v>9.3101127003838062</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>30.905656642870348</v>
+        <v>0.72793777949927463</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -843,23 +843,23 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>17.962822084330142</v>
+        <v>12</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2.3254257537125342</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>15.114457429513317</v>
+        <v>1.7560829841649972</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>13.611317598874157</v>
+        <v>8.0619831234722614</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>29.330984844035392</v>
+        <v>0.57495484506538963</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -883,15 +883,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>6.2934601981889768</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>7.3575258108674548</v>
+        <v>0.11010744120623722</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>0.81101820168687599</v>
+        <v>11.637553696804588</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>1.8422357983646171</v>
+        <v>0.64248191666670218</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>22.292263071463701</v>
+        <v>2.6166755832483135</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -923,15 +923,15 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2.9964572510049479</v>
+        <v>12</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2.0528521634681511</v>
+        <v>1.0275536675676475</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -939,15 +939,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>3.5922531613068855</v>
+        <v>12</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>3.6362848103694221</v>
+        <v>1.3435711558565608</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>23.246525551029549</v>
+        <v>2.9762768482808202</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>11.261579927544448</v>
+        <v>1.1379301802175181</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>5.6316378044013762</v>
+        <v>5.44245197787835</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>10.640528640219353</v>
+        <v>1.5049755140332193</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>12.536601566093248</v>
+        <v>1.226789101754552</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -995,15 +995,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>36.874870647935737</v>
+        <v>12</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>22.254465905926732</v>
+        <v>0.24009474468667236</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>9.4303181039712314</v>
+        <v>0.74148310120573513</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>19.062898368121928</v>
+        <v>0.28760231147506371</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1027,15 +1027,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>8.9671559847086844</v>
+        <v>12</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>4.0189547593936119</v>
+        <v>2.7894576033553387</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>20.880893150464232</v>
+        <v>1.3797965572058373</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>18.883741272545993</v>
+        <v>2.5145640679605763</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>7.5102428978794711</v>
+        <v>0.76017632702168447</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>0.47428179415191385</v>
+        <v>11.305354874758317</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>10.70346026498396</v>
+        <v>11.889896987590731</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>13.630402521247456</v>
+        <v>4.6998954073508816</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>1.6731417809729314</v>
+        <v>6.565108085591949</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>14.364978765933134</v>
+        <v>8.139974878024919</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>33.200416634837872</v>
+        <v>4.0649538438388664</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>21.850776239846343</v>
+        <v>11.921501884758426</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>5.043534053230883</v>
+        <v>2.3401336564426027</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>4.506813404514654</v>
+        <v>0.79389215198389784</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>14.567753226976413</v>
+        <v>1.3503699316622177</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>6.1418532048771377</v>
+        <v>0.57823297565304843</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>13.125139633054717</v>
+        <v>4.574541378768715</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1163,15 +1163,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>12.372772302066624</v>
+        <v>12</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>20.718773513095886</v>
+        <v>2.0651429080828967</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>13.873182631881118</v>
+        <v>5.2469643026162007</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>6.0910949936900547</v>
+        <v>7.7609033747997458</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>0.69019952087959968</v>
+        <v>2.5082128420755563</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>0.57118887479725644</v>
+        <v>9.8682286557734464E-2</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>4.6271613223184911</v>
+        <v>3.0470934537674514</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>20.243672991451767</v>
+        <v>9.7693425966136953</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>5.1664320671675963</v>
+        <v>0.66680843173241111</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>21.869081641133342</v>
+        <v>0.209672494140862</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>8.7431419235060925</v>
+        <v>2.2981098706575516</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>8.8841192205214945</v>
+        <v>0.47556311527628153</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>3.5095783124587721</v>
+        <v>2.7590012537465509</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>10.208966976014921</v>
+        <v>0.13436950733650843</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>6.8188912294645272</v>
+        <v>10.481440838962104</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1283,15 +1283,15 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>15.045869040314319</v>
+        <v>12</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>10.055262028216552</v>
+        <v>2.3633504760699311</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>11.823239029333273</v>
+        <v>2.4329477917961531</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>17.173935273213619</v>
+        <v>7.193074187197622E-2</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>9.7222073511570741</v>
+        <v>0.76489612713067989</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>17.999200817206827</v>
+        <v>6.5172546638714559</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>4.334587993044833</v>
+        <v>1.2658907263626968</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>11.506400062849544</v>
+        <v>1.6428957737297845</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>1.8127676043322913</v>
+        <v>1.2485278373479343</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1355,15 +1355,15 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>14.359653779535272</v>
+        <v>12</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>18.258880396759817</v>
+        <v>3.9965815116566312</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>9.6374653800275301</v>
+        <v>7.1470956628624078</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>7.440486549920708</v>
+        <v>0.25421908557586709</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>23.98168183721307</v>
+        <v>2.9590286813189763</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>15.946483074132875</v>
+        <v>0.22052913225668375</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>25.070720976606285</v>
+        <v>0.49793857693017518</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>8.8838960305220063</v>
+        <v>6.5448506318366766</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>7.1622022699289785</v>
+        <v>11.315749603581528</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>1.0866582553702269</v>
+        <v>0.68741120813225187</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>15.453481154486614</v>
+        <v>1.9291031014637907</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>8.7342627893362383</v>
+        <v>3.0811964142918806</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>3.4500907315084777</v>
+        <v>2.2159739323375067</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>6.800401065670961</v>
+        <v>7.2967727872327703</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1467,23 +1467,23 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>3.4727802839405202</v>
+        <v>12</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>24.482698762768877</v>
+        <v>12</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>8.8936635644849211</v>
+        <v>3.0307266834925173</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>4.5633580846387831</v>
+        <v>0.36855833428557311</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>17.22023477935765</v>
+        <v>1.6475686726940324</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>28.931556704017453</v>
+        <v>2.2496352483408932</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>6.34943349531442</v>
+        <v>9.3315865419734578</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>9.1391374613529646</v>
+        <v>0.61272811076769851</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1531,23 +1531,23 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>28.246520100372379</v>
+        <v>12</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>21.748021937699686</v>
+        <v>12</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>15.237209143501559</v>
+        <v>5.1056802679075837</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>2.9895850311701446</v>
+        <v>6.6545766864155915</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>12.629992546267083</v>
+        <v>0.35261771946396964</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>9.2871783571852422</v>
+        <v>6.0331360510308745</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1579,9 +1579,17 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>3.9675336643351127</v>
+        <v>2.3954450395397696E-2</v>
       </c>
       <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>3.7487053356273536</v>
+      </c>
+      <c r="B151">
         <v>1</v>
       </c>
     </row>
